--- a/IMKL2.x/1. dataspecificatie/IMKL-changelog dataspecificatie (Herman).xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL-changelog dataspecificatie (Herman).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hetkadaster.sharepoint.com/sites/KLIC/Shared Documents/Documentatie Functioneel/KLIC-WIN/9600 Datamodel/IMKL2.0 review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{E962F3BA-9B9C-4004-845A-EDD728F18552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD480135-35E0-4DB7-BE9A-C12BF3F920BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B944886-843A-4C8D-870D-3F334F914489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -549,6 +549,27 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>toegevoegd in 5.2</t>
+  </si>
+  <si>
+    <t>Verwerkt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nog niet bekend</t>
+  </si>
+  <si>
+    <t>wordt nu genoemd dat het geintegreerd is in wibon</t>
+  </si>
+  <si>
+    <t>direct gekoppeld</t>
+  </si>
+  <si>
+    <t>nog bekijken</t>
   </si>
 </sst>
 </file>
@@ -1031,23 +1052,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="60.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="60.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1061,8 +1082,11 @@
       <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>43997</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
@@ -1083,8 +1107,11 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
@@ -1093,8 +1120,11 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
@@ -1103,15 +1133,18 @@
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
@@ -1120,30 +1153,42 @@
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
@@ -1152,15 +1197,21 @@
       <c r="E12" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>51</v>
@@ -1171,8 +1222,11 @@
       <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>14</v>
@@ -1183,8 +1237,11 @@
       <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -1195,8 +1252,11 @@
       <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
@@ -1205,8 +1265,11 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
@@ -1215,8 +1278,11 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="10" t="s">
@@ -1225,8 +1291,11 @@
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7" t="s">
@@ -1235,8 +1304,11 @@
       <c r="E20" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="132" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
@@ -1245,8 +1317,11 @@
       <c r="E21" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="61.2" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="63" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
@@ -1256,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="11" t="s">
@@ -1266,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
@@ -1276,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
@@ -1286,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="52.5" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>46</v>
@@ -1298,7 +1373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>49</v>
@@ -1308,7 +1383,7 @@
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" ht="71.400000000000006" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>58</v>
@@ -1320,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
         <v>36</v>
@@ -1332,7 +1407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
@@ -1344,7 +1419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
         <v>36</v>
@@ -1356,7 +1431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1364,7 +1439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1372,365 +1447,365 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
@@ -1749,13 +1824,28 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E6CDABC94C8E4D9FF787BE52A12D70" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="42d04a1539dbe8e7765031e6c6055247">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4710195-8c97-40d8-961f-382a10a2b3ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c33fada9a9359e767f1806f1464d746a" ns2:_="">
     <xsd:import namespace="b4710195-8c97-40d8-961f-382a10a2b3ee"/>
@@ -1939,22 +2029,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C212EA7D-0640-4F31-AD84-F02D0846CE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1970,21 +2062,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IMKL2.x/1. dataspecificatie/IMKL-changelog dataspecificatie (Herman).xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL-changelog dataspecificatie (Herman).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B944886-843A-4C8D-870D-3F334F914489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CBC526-C233-4E13-AA80-AD20A73C6C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Via INSPIRE:UtilityNetwork is er met het attribuut utilityFacilityReference een referentie mogelijk naar een ActivityComplex. Hiermee kan gerefereerd worden aan grote utiliteitsnetonderdelen zoals bijvoorbeeld een energiecentrale een waterzuiveringscentrale, een overslagstation.</t>
   </si>
   <si>
-    <t>De objectklasse ActivityComplex wordt niet ondersteund door het huidige IMKL en evenmin het attribuut utilityFacilityNetwork.</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
@@ -569,7 +566,51 @@
     <t>direct gekoppeld</t>
   </si>
   <si>
-    <t>nog bekijken</t>
+    <t>aangepast</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De objectklasse ActivityComplex wordt niet ondersteund door het huidige IMKL en evenmin het attribuut utilityFacilityNetwork. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In  INSPIRE is er voor UtilityNetwork met het attribuut utilityFacilityReference een referentie mogelijk naar een ActivityComplex. Hiermee kan gerefereerd worden aan grote utiliteitsnetonderdelen zoals bijvoorbeeld een energiecentrale een waterzuiveringscentrale, een overslagstation. Het huidige IMKL ondersteunt echter niet de opname van het objecttype ActivityComplex en evenmin het attribuut utilityFacilityReference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>x maar moet nog iets genuanceerder</t>
+  </si>
+  <si>
+    <t>geen idee. Mogelijk toch beperken tot gml:LineString</t>
+  </si>
+  <si>
+    <t>x. Alleen als je daar op valideert</t>
+  </si>
+  <si>
+    <t>waarom</t>
+  </si>
+  <si>
+    <t>in GML denk ik niet. In IMKL wel</t>
+  </si>
+  <si>
+    <t>overgenomen</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1077,13 +1118,13 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1134,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1195,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1208,22 +1249,22 @@
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1238,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1253,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1279,7 +1320,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24" x14ac:dyDescent="0.2">
@@ -1292,7 +1333,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="36" x14ac:dyDescent="0.2">
@@ -1305,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="132" x14ac:dyDescent="0.2">
@@ -1318,17 +1359,20 @@
         <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="63" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>55</v>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -1340,6 +1384,9 @@
       <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
@@ -1350,6 +1397,9 @@
       <c r="E24" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
@@ -1360,8 +1410,11 @@
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="108" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>46</v>
@@ -1370,29 +1423,38 @@
         <v>47</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="14"/>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>60</v>
+      <c r="F28" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="36" x14ac:dyDescent="0.2">
@@ -1401,10 +1463,13 @@
         <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>57</v>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -1418,6 +1483,9 @@
       <c r="E30" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="36" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
@@ -1429,6 +1497,9 @@
       </c>
       <c r="E31" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="36" x14ac:dyDescent="0.2">
@@ -1438,86 +1509,92 @@
       <c r="E32" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="8"/>
@@ -1840,12 +1917,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E6CDABC94C8E4D9FF787BE52A12D70" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="42d04a1539dbe8e7765031e6c6055247">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4710195-8c97-40d8-961f-382a10a2b3ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c33fada9a9359e767f1806f1464d746a" ns2:_="">
     <xsd:import namespace="b4710195-8c97-40d8-961f-382a10a2b3ee"/>
@@ -2029,6 +2100,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
   <ds:schemaRefs>
@@ -2038,15 +2115,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C212EA7D-0640-4F31-AD84-F02D0846CE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2062,4 +2130,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>